--- a/items/ساعت هوشمند مدل T900 Pro Max.xlsx
+++ b/items/ساعت هوشمند مدل T900 Pro Max.xlsx
@@ -28,7 +28,7 @@
     <t>2025-10-16</t>
   </si>
   <si>
-    <t>6400000</t>
+    <t>640000</t>
   </si>
   <si>
     <t>6</t>

--- a/items/ساعت هوشمند مدل T900 Pro Max.xlsx
+++ b/items/ساعت هوشمند مدل T900 Pro Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>2025-10-17</t>
   </si>
 </sst>
 </file>
@@ -411,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -442,8 +445,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/items/ساعت هوشمند مدل T900 Pro Max.xlsx
+++ b/items/ساعت هوشمند مدل T900 Pro Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>2025-10-17</t>
+  </si>
+  <si>
+    <t>2025-10-18</t>
   </si>
 </sst>
 </file>
@@ -414,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -456,6 +459,20 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/items/ساعت هوشمند مدل T900 Pro Max.xlsx
+++ b/items/ساعت هوشمند مدل T900 Pro Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>2025-10-18</t>
+  </si>
+  <si>
+    <t>2025-10-19</t>
   </si>
 </sst>
 </file>
@@ -417,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -473,6 +476,20 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
       </c>
     </row>

--- a/items/ساعت هوشمند مدل T900 Pro Max.xlsx
+++ b/items/ساعت هوشمند مدل T900 Pro Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>2025-10-19</t>
+  </si>
+  <si>
+    <t>2025-10-21</t>
+  </si>
+  <si>
+    <t>680000</t>
   </si>
 </sst>
 </file>
@@ -420,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -490,6 +496,20 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
         <v>7</v>
       </c>
     </row>

--- a/items/ساعت هوشمند مدل T900 Pro Max.xlsx
+++ b/items/ساعت هوشمند مدل T900 Pro Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>680000</t>
+  </si>
+  <si>
+    <t>2025-10-22</t>
   </si>
 </sst>
 </file>
@@ -426,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -513,6 +516,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ساعت هوشمند مدل T900 Pro Max.xlsx
+++ b/items/ساعت هوشمند مدل T900 Pro Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>2025-10-22</t>
+  </si>
+  <si>
+    <t>2025-10-23</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -530,6 +533,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ساعت هوشمند مدل T900 Pro Max.xlsx
+++ b/items/ساعت هوشمند مدل T900 Pro Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>2025-10-23</t>
+  </si>
+  <si>
+    <t>2025-10-24</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -547,6 +550,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ساعت هوشمند مدل T900 Pro Max.xlsx
+++ b/items/ساعت هوشمند مدل T900 Pro Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>2025-10-24</t>
+  </si>
+  <si>
+    <t>2025-10-27</t>
   </si>
 </sst>
 </file>
@@ -435,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -564,6 +567,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ساعت هوشمند مدل T900 Pro Max.xlsx
+++ b/items/ساعت هوشمند مدل T900 Pro Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>2025-10-27</t>
+  </si>
+  <si>
+    <t>2025-11-04</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -581,6 +584,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ساعت هوشمند مدل T900 Pro Max.xlsx
+++ b/items/ساعت هوشمند مدل T900 Pro Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>2025-11-04</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
   </si>
 </sst>
 </file>
@@ -441,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -598,6 +601,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ساعت هوشمند مدل T900 Pro Max.xlsx
+++ b/items/ساعت هوشمند مدل T900 Pro Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>2025-11-07</t>
   </si>
 </sst>
 </file>
@@ -444,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -615,6 +618,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ساعت هوشمند مدل T900 Pro Max.xlsx
+++ b/items/ساعت هوشمند مدل T900 Pro Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>2025-11-07</t>
+  </si>
+  <si>
+    <t>2025-11-08</t>
   </si>
 </sst>
 </file>
@@ -447,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -632,6 +635,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ساعت هوشمند مدل T900 Pro Max.xlsx
+++ b/items/ساعت هوشمند مدل T900 Pro Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>2025-11-08</t>
+  </si>
+  <si>
+    <t>2025-11-09</t>
+  </si>
+  <si>
+    <t>630000</t>
   </si>
 </sst>
 </file>
@@ -450,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -649,6 +655,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ساعت هوشمند مدل T900 Pro Max.xlsx
+++ b/items/ساعت هوشمند مدل T900 Pro Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>630000</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -669,6 +672,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ساعت هوشمند مدل T900 Pro Max.xlsx
+++ b/items/ساعت هوشمند مدل T900 Pro Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>2025-11-11</t>
+  </si>
+  <si>
+    <t>660000</t>
   </si>
 </sst>
 </file>
@@ -459,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -686,6 +692,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ساعت هوشمند مدل T900 Pro Max.xlsx
+++ b/items/ساعت هوشمند مدل T900 Pro Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>660000</t>
+  </si>
+  <si>
+    <t>2025-11-12</t>
   </si>
 </sst>
 </file>
@@ -465,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -706,6 +709,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ساعت هوشمند مدل T900 Pro Max.xlsx
+++ b/items/ساعت هوشمند مدل T900 Pro Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>2025-11-12</t>
+  </si>
+  <si>
+    <t>2025-11-13</t>
   </si>
 </sst>
 </file>
@@ -468,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -723,6 +726,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ساعت هوشمند مدل T900 Pro Max.xlsx
+++ b/items/ساعت هوشمند مدل T900 Pro Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>2025-11-13</t>
+  </si>
+  <si>
+    <t>2025-11-14</t>
   </si>
 </sst>
 </file>
@@ -471,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -740,6 +743,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ساعت هوشمند مدل T900 Pro Max.xlsx
+++ b/items/ساعت هوشمند مدل T900 Pro Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>2025-11-14</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
   </si>
 </sst>
 </file>
@@ -474,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -757,6 +760,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ساعت هوشمند مدل T900 Pro Max.xlsx
+++ b/items/ساعت هوشمند مدل T900 Pro Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-16</t>
   </si>
 </sst>
 </file>
@@ -477,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -774,6 +777,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ساعت هوشمند مدل T900 Pro Max.xlsx
+++ b/items/ساعت هوشمند مدل T900 Pro Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>2025-11-16</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -791,6 +794,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ساعت هوشمند مدل T900 Pro Max.xlsx
+++ b/items/ساعت هوشمند مدل T900 Pro Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>2026-02-07</t>
+  </si>
+  <si>
+    <t>1030000</t>
   </si>
 </sst>
 </file>
@@ -483,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -808,6 +814,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ساعت هوشمند مدل T900 Pro Max.xlsx
+++ b/items/ساعت هوشمند مدل T900 Pro Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>1030000</t>
+  </si>
+  <si>
+    <t>2026-02-08</t>
   </si>
 </sst>
 </file>
@@ -489,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -828,6 +831,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ساعت هوشمند مدل T900 Pro Max.xlsx
+++ b/items/ساعت هوشمند مدل T900 Pro Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>2026-02-08</t>
+  </si>
+  <si>
+    <t>2026-02-09</t>
+  </si>
+  <si>
+    <t>1050000</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -492,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -845,6 +854,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ساعت هوشمند مدل T900 Pro Max.xlsx
+++ b/items/ساعت هوشمند مدل T900 Pro Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>2026-02-10</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -868,6 +871,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
